--- a/va_facility_data_2025-02-20/Green Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Green%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Green Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Green%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2eb2c0118dc64156a7d6194ec41e1f1f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rabd5c6aee00e460f8c1fd5d1070f0462"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4bf00e90c31542959651e78b388830d2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R98673dcd66dd4a8fa1806e4a941e5faa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R18d6dd4e5042405b9e9bf9775f189e12"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R91708c5f12c142e89de7d72983ec9db0"/>
   </x:sheets>
 </x:workbook>
 </file>
